--- a/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,44%</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>73,61%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>91,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,55</t>
+          <t>0,11; 3,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,49</t>
+          <t>0,08; 3,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,85</t>
+          <t>-1,02; 2,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 11,29</t>
+          <t>-0,69; 3,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 235,88</t>
+          <t>-1,8; 3,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 187,3</t>
+          <t>0,88; 7,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 119,15</t>
+          <t>0,14; 302,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 79,23</t>
+          <t>-0,89; 205,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,12; 124,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; 138,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-22,24; 69,86</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 220,77</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,85</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>222,36%</t>
+          <t>24,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>301,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>182,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,82%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,35</t>
+          <t>-1,15; 4,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,68</t>
+          <t>-1,21; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,9</t>
+          <t>-0,37; 6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 40,12</t>
+          <t>2,84; 12,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 309,81</t>
+          <t>2,56; 14,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 166,41</t>
+          <t>-0,41; 6,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 216,31</t>
+          <t>-30,66; 268,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,71; 867,61</t>
+          <t>-39,18; 151,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 293,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61,05; 1283,9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 488,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 161,34</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>103,25%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>49,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>86,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>130,32%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,68</t>
+          <t>-3,56; 5,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,99</t>
+          <t>-2,76; 4,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 11,19</t>
+          <t>-2,16; 10,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 670,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,19; 690,34</t>
+          <t>-0,79; 13,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 562,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-70,1; 641,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-37,12; 381,67</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-24,02; 664,03</t>
         </is>
       </c>
     </row>
@@ -920,7 +1072,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,32 +1082,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>53,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>80,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,11</t>
+          <t>0,23; 3,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,52</t>
+          <t>0,14; 2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,29</t>
+          <t>0,22; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 15,81</t>
+          <t>0,74; 4,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 172,94</t>
+          <t>0,35; 4,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 123,76</t>
+          <t>1,83; 6,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 118,13</t>
+          <t>2,44; 182,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 127,49</t>
+          <t>3,03; 128,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 139,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 187,81</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 104,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30,05; 160,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>89,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>73,61%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32,03%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>41,34%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,88%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>91,04%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.949860544929915</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.676874041587553</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9571829319781677</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.350338529430468</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.045051922159634</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.160521724650905</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8914289025100591</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5871212612487228</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2843856953577445</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4133951298010936</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1652074782503425</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.8788182412170651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 3,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 3,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 2,95</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 3,21</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 3,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 7,38</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 302,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 205,89</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,12; 124,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-17,42; 138,68</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-22,24; 69,86</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 220,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.108557554410346</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.31092534899751</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.138702235242499</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6909999741644389</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.734773368557685</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.7464224407588518</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.00273636365307972</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1148069295424952</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2529362085090572</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1741677769053766</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2132813751688227</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.08555772148876874</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.03965272570121</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.61101934624553</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.813691892729568</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.208463912873556</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.598522602711782</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.185087460623013</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.949565354577728</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.911586949374426</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.18407980017785</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.386816794174111</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.7187657193234263</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>2.082622994755122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>68,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24,57%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>68,69%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>301,44%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>182,6%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>54,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 4,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 2,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 6,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 12,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 14,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 6,29</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-30,66; 268,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,18; 151,92</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-18,27; 293,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>61,05; 1283,9</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>29,7; 488,72</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; 161,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.886312004529998</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9258212276518022</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.001900410953422</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.693381372707546</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8.211161739826601</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.987881426772979</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7338334108938245</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4073697777104053</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6532512750541052</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>3.014405344327415</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.813731466732705</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.5858259772102649</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,64%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>49,88%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>86,08%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>130,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8553566928967318</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.9700815461964395</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5660422609893628</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.841448583286542</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>2.553379312231242</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2298546996277913</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2647046828753358</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3313757225635892</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2091350722193109</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.6105416709022222</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.3135537346344817</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.06978570883461264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,56; 5,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 4,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 10,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 13,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-70,1; 641,39</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-37,12; 381,67</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-24,02; 664,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.540963398734771</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.614966232197847</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.737882753170568</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.38312165682284</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.79823855539889</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.437843564863758</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.91710028322727</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.776038171667902</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.537670561484231</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>12.8389972770609</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.926897845026786</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.709516638691938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,241 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,95</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>75,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>53,73%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>53,33%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>83,79%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>44,05%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>80,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.648988166128691</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.191095941847455</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.186284321269099</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>6.27237420986109</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.705915956537475</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4859933242889407</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.063758347022773</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>1.346484989305309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 3,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 2,63</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 3,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 4,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 4,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 6,37</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 182,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 128,05</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 139,03</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>15,13; 187,81</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 104,68</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>30,05; 160,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.810978568636251</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.586659716542899</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.386769658625257</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.5456708204654279</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.7112164638241687</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2538135543271476</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.206921541575734</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.531121839375682</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.101547066152344</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.2966347092662</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>13.71515965960446</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>5.936675194807551</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.441177764308645</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>6.880789349219147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.885324391110594</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.349913159075968</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.835164258632335</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.526872828338241</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.669739363974038</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>3.948031975803442</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.7995620518317588</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5246241039589852</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5354924509032407</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.8379164903872334</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4533520552955448</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.8103512741612131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.3065650725271727</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.09003701757237709</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1735559790222687</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.7371532594819458</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4234563105093162</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1.872102302198866</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.04635098456671535</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.01178904233029957</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.00638101091137583</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1512879911493197</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.0464204821643933</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.3169703617182691</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.292349319196522</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.650891767543509</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.692620136718387</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.295750615264956</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.920153528013095</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>6.308396370908828</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.913447566611389</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.260415410176481</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.380274626025969</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.878146386658337</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.042072056821641</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.609177153826337</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1173,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
